--- a/document/info/Region.xlsx
+++ b/document/info/Region.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Personal_File\Database\db_project\document\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AF4F1D-BB0B-4E74-B598-110209DD6AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F8C9C6-4973-4B7A-AD13-7D72250F6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="107">
   <si>
     <t>龙门</t>
   </si>
@@ -739,16 +739,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F41"/>
+  <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
@@ -765,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
@@ -781,8 +781,14 @@
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -798,8 +804,14 @@
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -815,8 +827,14 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -832,8 +850,14 @@
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +873,14 @@
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
@@ -866,8 +896,14 @@
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -883,8 +919,14 @@
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -900,8 +942,14 @@
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
@@ -917,8 +965,14 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -934,8 +988,14 @@
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -951,8 +1011,14 @@
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -968,8 +1034,14 @@
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
@@ -985,8 +1057,14 @@
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1080,14 @@
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1019,8 +1103,14 @@
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1036,8 +1126,14 @@
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1052,7 +1148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1069,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
@@ -1086,7 +1182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
@@ -1120,7 +1216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1137,7 +1233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
@@ -1154,7 +1250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
@@ -1171,7 +1267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>66</v>
       </c>
@@ -1188,7 +1284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>103</v>
       </c>
@@ -1205,7 +1301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1222,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
@@ -1239,7 +1335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>77</v>
       </c>
@@ -1256,7 +1352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
@@ -1273,7 +1369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
@@ -1290,7 +1386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>84</v>
       </c>
@@ -1307,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
@@ -1324,7 +1420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
@@ -1341,7 +1437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
@@ -1358,7 +1454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>105</v>
       </c>
@@ -1375,7 +1471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
@@ -1392,7 +1488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>99</v>
       </c>
@@ -1409,7 +1505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
